--- a/assignment1/report/analysis/Book1.xlsx
+++ b/assignment1/report/analysis/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haji\Desktop\Embedded-Lab\assignment1\report\output_anal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haji\Desktop\Embedded-Lab\assignment1\report\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,10 +143,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -154,7 +157,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Performance Analysis</a:t>
             </a:r>
           </a:p>
@@ -173,10 +186,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2653,11 +2669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315184024"/>
-        <c:axId val="315184416"/>
+        <c:axId val="191210888"/>
+        <c:axId val="191212064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315184024"/>
+        <c:axId val="191210888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="128"/>
@@ -2685,10 +2701,13 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2696,7 +2715,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
                   <a:t>SIZE</a:t>
                 </a:r>
               </a:p>
@@ -2722,10 +2751,13 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2770,13 +2802,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315184416"/>
+        <c:crossAx val="191212064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="315184416"/>
+        <c:axId val="191212064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2804,10 +2836,13 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2815,7 +2850,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
@@ -2834,10 +2879,13 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2881,7 +2929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315184024"/>
+        <c:crossAx val="191210888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3007,7 +3055,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> analysis</a:t>
+              <a:t> Analysis</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4720,13 +4768,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457387504"/>
-        <c:axId val="457387112"/>
+        <c:axId val="191213240"/>
+        <c:axId val="191212848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457387504"/>
+        <c:axId val="191213240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="128"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4837,12 +4887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457387112"/>
+        <c:crossAx val="191212848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457387112"/>
+        <c:axId val="191212848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4882,14 +4932,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speed</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Speed-up</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>-up</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4960,7 +5015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457387504"/>
+        <c:crossAx val="191213240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6121,15 +6176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134302</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>187311</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>414172</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>467181</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6150,16 +6205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694496</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565909</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6450,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6544,7 +6599,7 @@
         <v>1.1676082862523541E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F66" si="1">C4/D4</f>
+        <f t="shared" ref="F4:F66" si="1">C4/D4</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
